--- a/6회사보충/arima계산과정.xlsx
+++ b/6회사보충/arima계산과정.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jhpark\개인\git_day\6회사보충\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOUPC\Desktop\지후\공부\git_day\6회사보충\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C794FDBF-8574-4058-ADB7-A85511CD19D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777DD9C6-C595-422E-990F-7B6B3DAA5BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" xr2:uid="{8DB67CA5-226A-433A-AC0A-C2258A8D7DFE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DB67CA5-226A-433A-AC0A-C2258A8D7DFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>time</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -297,13 +298,33 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t>차분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀계산식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀계산식(AR계수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분되돌리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -538,17 +559,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -557,13 +575,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -572,37 +590,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3324FAEF-48BB-417B-840D-3E32C880621F}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E10"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1121,15 +1136,15 @@
     <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1139,13 +1154,13 @@
       <c r="L1" s="15"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+    <row r="2" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1153,58 +1168,54 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2"/>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45714</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="2">
         <v>45714</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="K4" t="s">
         <v>26</v>
       </c>
@@ -1212,28 +1223,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45714.000057870369</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="2">
         <v>45714.000057870369</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2"/>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
@@ -1241,549 +1250,427 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45714.000115625</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="3">
+      <c r="F6" s="3"/>
+      <c r="H6" s="2">
         <v>45714.000115625</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45714.000173437496</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="2">
         <v>45714.000173437496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>2</v>
       </c>
       <c r="L7">
         <v>1.0123</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="M7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45714.00023125</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="H8" s="3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="2">
         <v>45714.00023125</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L8">
         <v>0.45669999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45714.000289062496</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="3">
+      <c r="F9" s="3"/>
+      <c r="H9" s="2">
         <v>45714.000289062496</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="6" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L9">
         <v>-0.1234</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="M9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45714.000346875</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="3">
+      <c r="F10" s="3"/>
+      <c r="H10" s="2">
         <v>45714.000346875</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="6" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L10">
         <v>9.8699999999999996E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="M10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45714.000404687496</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="3">
+      <c r="F11" s="3"/>
+      <c r="H11" s="2">
         <v>45714.000404687496</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="6" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L11">
         <v>-4.5600000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="M11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45714.0004625</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="3">
+      <c r="F12" s="3"/>
+      <c r="H12" s="2">
         <v>45714.0004625</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L12">
         <v>-0.32100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45714.000520312497</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="3">
+      <c r="F13" s="3"/>
+      <c r="H13" s="2">
         <v>45714.000520312497</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <f>$E$7+$E$8*B13</f>
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="H14" s="3" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="2">
-        <f>$L$7+$L$8*I13+$L$9*I12+$L$10*I11+$L$11*I10+$L$12*$L$13</f>
-        <v>2.5220000000000002</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="O14">
-        <f>0.8+(4*0.5)+(3*-0.2)+(1*0.3)+(1*-0.1)</f>
-        <v>2.3999999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="I14">
+        <f>$M$7+$M$8*I13+$M$9*I12+$M$10*I11+$M$11*I10</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <f>$E$7+$E$8*B14</f>
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="21"/>
-      <c r="H15" s="3" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" ref="I15:I18" si="0">$L$7+$L$8*I14+$L$9*I13+$L$10*I12+$L$11*I11+$L$12*$L$13</f>
-        <v>1.9209974000000001</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="I15">
+        <f t="shared" ref="I15:I18" si="0">$M$7+$M$8*I14+$M$9*I13+$M$10*I12+$M$11*I11</f>
+        <v>2.4499999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <f>$E$7+$E$8*B15</f>
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="21"/>
-      <c r="H16" s="3" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <f t="shared" si="0"/>
-        <v>1.8364047125799998</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+        <v>3.0350000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <f>$E$7+$E$8*B16</f>
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="21"/>
-      <c r="H17" s="3" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <f t="shared" si="0"/>
-        <v>1.6804563530752858</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+        <v>3.4504999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <f>$E$7+$E$8*B17</f>
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="3" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <f t="shared" si="0"/>
-        <v>1.6277513182971111</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="4"/>
+        <v>3.0871500000000003</v>
+      </c>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="12" t="s">
+      <c r="F21" s="3"/>
+      <c r="H21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="3"/>
+      <c r="H24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="5" t="s">
+      <c r="F25" s="3"/>
+      <c r="H25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="4"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="5" t="s">
+      <c r="F26" s="3"/>
+      <c r="H26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="4"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1795,4 +1682,491 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3257DFE-4AEB-49FF-B50E-0384CFD40F92}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:L45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <f>LINEST(L2:L25,L1:L24,FALSE,FALSE)</f>
+        <v>1.0612244897959182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>A2-A1</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>LINEST(B3:B10,B2:B9,FALSE,FALSE)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>$J$2*H1</f>
+        <v>1.1578947368421049</v>
+      </c>
+      <c r="J2">
+        <f>LINEST(H2:H10,H1:H9,FALSE,FALSE)</f>
+        <v>1.1578947368421049</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="0">A3-A2</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>$E$2*B2</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D3">
+        <f>A2+C3</f>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <f>$J$2*H2</f>
+        <v>2.3157894736842097</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>$E$2*B3</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="1">A3+C4</f>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>$J$2*H3</f>
+        <v>3.4736842105263146</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>$E$2*B4</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f>$J$2*H4</f>
+        <v>4.6315789473684195</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>$E$2*B5</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>$J$2*H5</f>
+        <v>5.7894736842105239</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>$E$2*B6</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f>$J$2*H6</f>
+        <v>6.9473684210526292</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>$E$2*B7</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>$J$2*H7</f>
+        <v>8.1052631578947345</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>$E$2*B8</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <f>$J$2*H8</f>
+        <v>9.2631578947368389</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>$E$2*B9</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f>$J$2*H9</f>
+        <v>10.421052631578943</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>$N$1*L25</f>
+        <v>26.530612244897956</v>
+      </c>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f t="shared" ref="L27:L45" si="2">$N$1*L26</f>
+        <v>28.154935443565172</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>29.878707001334465</v>
+      </c>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>31.708015593252899</v>
+      </c>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>33.649322670390823</v>
+      </c>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>35.709485282863724</v>
+      </c>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>37.895780300181904</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>40.215930114478752</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>42.678129917406018</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>45.291076647043113</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>48.063999707066152</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>51.006693566682436</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>54.129552356479316</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>57.443606582386202</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>60.960562087430247</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>64.692841398905557</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>68.653627607001809</v>
+      </c>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>72.856910929879461</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>77.317538129667994</v>
+      </c>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>82.051264953933369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>